--- a/BinanceData20250221.xlsx
+++ b/BinanceData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>149214893</v>
+        <v>150961450</v>
       </c>
       <c r="E2" t="n">
-        <v>165353421</v>
+        <v>167288879</v>
       </c>
       <c r="F2" t="n">
-        <v>100718.9286454154</v>
+        <v>111293.1623817867</v>
       </c>
       <c r="G2" t="n">
-        <v>264911.3104698742</v>
+        <v>243292.7486521885</v>
       </c>
       <c r="H2" t="n">
         <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>38150935</v>
+        <v>39156853</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>127952617</v>
+        <v>130209219</v>
       </c>
       <c r="E3" t="n">
-        <v>501535946</v>
+        <v>510381151</v>
       </c>
       <c r="F3" t="n">
-        <v>86605.75459699193</v>
+        <v>96508.76275813965</v>
       </c>
       <c r="G3" t="n">
-        <v>115587.8019951132</v>
+        <v>124696.9741646354</v>
       </c>
       <c r="H3" t="n">
         <v>0.02</v>
       </c>
       <c r="I3" t="n">
-        <v>29431509</v>
+        <v>29776740</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>586732061</v>
+        <v>592192023</v>
       </c>
       <c r="E4" t="n">
-        <v>733914604</v>
+        <v>740744205</v>
       </c>
       <c r="F4" t="n">
-        <v>317754.5305674133</v>
+        <v>324234.643312983</v>
       </c>
       <c r="G4" t="n">
-        <v>344396.7598552572</v>
+        <v>334848.4114360797</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>55362516</v>
+        <v>56839496</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>143147077</v>
+        <v>144878027</v>
       </c>
       <c r="E5" t="n">
-        <v>143147077</v>
+        <v>144878027</v>
       </c>
       <c r="F5" t="n">
-        <v>263112.6650004201</v>
+        <v>213414.7658834449</v>
       </c>
       <c r="G5" t="n">
-        <v>319487.1013386509</v>
+        <v>286703.0516349067</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>69649844</v>
+        <v>72243713</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>68193265</v>
+        <v>68943304</v>
       </c>
       <c r="E6" t="n">
-        <v>349709049</v>
+        <v>353555405</v>
       </c>
       <c r="F6" t="n">
-        <v>43169.56577055328</v>
+        <v>48637.78696621988</v>
       </c>
       <c r="G6" t="n">
-        <v>107384.7185681796</v>
+        <v>106876.6357499175</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>24731936</v>
+        <v>25344821</v>
       </c>
     </row>
     <row r="7">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100610613</v>
+        <v>101291079</v>
       </c>
       <c r="E7" t="n">
-        <v>125449641</v>
+        <v>126298102</v>
       </c>
       <c r="F7" t="n">
         <v>54850.84843102556</v>
@@ -687,7 +687,7 @@
         <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>10178011</v>
+        <v>10312553</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84429912</v>
+        <v>86357057</v>
       </c>
       <c r="E8" t="n">
-        <v>236249184</v>
+        <v>241540799</v>
       </c>
       <c r="F8" t="n">
-        <v>58664.91081685773</v>
+        <v>66180.54854854442</v>
       </c>
       <c r="G8" t="n">
-        <v>110951.3045591919</v>
+        <v>98577.21642390531</v>
       </c>
       <c r="H8" t="n">
         <v>0.04</v>
       </c>
       <c r="I8" t="n">
-        <v>44195681</v>
+        <v>50663197</v>
       </c>
     </row>
     <row r="9">
@@ -742,10 +742,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>145394828</v>
+        <v>146771553</v>
       </c>
       <c r="E9" t="n">
-        <v>145443715</v>
+        <v>146820902</v>
       </c>
       <c r="F9" t="n">
         <v>52092.69802508053</v>
@@ -757,7 +757,7 @@
         <v>0.24</v>
       </c>
       <c r="I9" t="n">
-        <v>2582602</v>
+        <v>2603178</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>662049139</v>
+        <v>674010389</v>
       </c>
       <c r="E10" t="n">
-        <v>662049139</v>
+        <v>674010389</v>
       </c>
       <c r="F10" t="n">
-        <v>753001.0450428149</v>
+        <v>706417.4564104473</v>
       </c>
       <c r="G10" t="n">
-        <v>1020172.071975345</v>
+        <v>996846.7891323704</v>
       </c>
       <c r="H10" t="n">
         <v>0.15</v>
       </c>
       <c r="I10" t="n">
-        <v>305799393</v>
+        <v>236701341</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>117863512</v>
+        <v>119631736</v>
       </c>
       <c r="E11" t="n">
-        <v>500601973</v>
+        <v>508112157</v>
       </c>
       <c r="F11" t="n">
-        <v>11935.14215627183</v>
+        <v>10020.69756771177</v>
       </c>
       <c r="G11" t="n">
-        <v>5165.051804113936</v>
+        <v>4149.895820441693</v>
       </c>
       <c r="H11" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I11" t="n">
-        <v>15803669</v>
+        <v>16032112</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1314825484</v>
+        <v>1339694558</v>
       </c>
       <c r="E12" t="n">
-        <v>6304857466</v>
+        <v>6424109767</v>
       </c>
       <c r="F12" t="n">
-        <v>893222.4470812525</v>
+        <v>777944.8172569411</v>
       </c>
       <c r="G12" t="n">
-        <v>969400.651324872</v>
+        <v>1135606.02075402</v>
       </c>
       <c r="H12" t="n">
         <v>0.02</v>
       </c>
       <c r="I12" t="n">
-        <v>168990334</v>
+        <v>175804979</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>274996094</v>
+        <v>279667493</v>
       </c>
       <c r="E13" t="n">
-        <v>1187035805</v>
+        <v>1207200153</v>
       </c>
       <c r="F13" t="n">
-        <v>679292.7123580173</v>
+        <v>722252.5106277736</v>
       </c>
       <c r="G13" t="n">
-        <v>722449.5747747261</v>
+        <v>687333.0014368269</v>
       </c>
       <c r="H13" t="n">
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>101791521</v>
+        <v>106679661</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>115415895</v>
+        <v>116644810</v>
       </c>
       <c r="E14" t="n">
-        <v>115415895</v>
+        <v>116644810</v>
       </c>
       <c r="F14" t="n">
-        <v>59980.23586286807</v>
+        <v>52364.764741641</v>
       </c>
       <c r="G14" t="n">
-        <v>65414.25398459148</v>
+        <v>66968.18611684114</v>
       </c>
       <c r="H14" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I14" t="n">
-        <v>6154702</v>
+        <v>7468170</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2045075862</v>
+        <v>2049977852</v>
       </c>
       <c r="E15" t="n">
-        <v>2045075862</v>
+        <v>2049977852</v>
       </c>
       <c r="F15" t="n">
-        <v>10549522.70725223</v>
+        <v>9382280.692119699</v>
       </c>
       <c r="G15" t="n">
-        <v>11498124.49301948</v>
+        <v>11008885.79175217</v>
       </c>
       <c r="H15" t="n">
         <v>0.01</v>
       </c>
       <c r="I15" t="n">
-        <v>7018925109</v>
+        <v>7028215479</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>207409930</v>
+        <v>210409904</v>
       </c>
       <c r="E16" t="n">
-        <v>1174482467</v>
+        <v>1191470163</v>
       </c>
       <c r="F16" t="n">
-        <v>364629.9233067352</v>
+        <v>313846.255074102</v>
       </c>
       <c r="G16" t="n">
-        <v>399960.6526232049</v>
+        <v>389793.2811329051</v>
       </c>
       <c r="H16" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>67883313</v>
+        <v>69388845</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>348113619</v>
+        <v>350003596</v>
       </c>
       <c r="E17" t="n">
-        <v>3131845975</v>
+        <v>3148849381</v>
       </c>
       <c r="F17" t="n">
-        <v>764412.5740113902</v>
+        <v>801738.7276614914</v>
       </c>
       <c r="G17" t="n">
-        <v>1219437.272675559</v>
+        <v>1231558.338706028</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>44520011</v>
+        <v>47779039</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>49255006</v>
+        <v>50025998</v>
       </c>
       <c r="E18" t="n">
-        <v>285166134</v>
+        <v>289629858</v>
       </c>
       <c r="F18" t="n">
-        <v>65388.6029158893</v>
+        <v>57539.66999362495</v>
       </c>
       <c r="G18" t="n">
-        <v>178583.8537823925</v>
+        <v>91328.23929060035</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>33861123</v>
+        <v>26976920</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>319666321</v>
+        <v>321674708</v>
       </c>
       <c r="E19" t="n">
-        <v>324653479</v>
+        <v>326693200</v>
       </c>
       <c r="F19" t="n">
-        <v>229749.516717226</v>
+        <v>217722.2757397548</v>
       </c>
       <c r="G19" t="n">
-        <v>384869.9603089454</v>
+        <v>385097.8125310827</v>
       </c>
       <c r="H19" t="n">
         <v>0.01</v>
       </c>
       <c r="I19" t="n">
-        <v>16520515</v>
+        <v>17216546</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>303568433</v>
+        <v>305623037</v>
       </c>
       <c r="E20" t="n">
-        <v>303568433</v>
+        <v>305623037</v>
       </c>
       <c r="F20" t="n">
-        <v>156546.7911817444</v>
+        <v>144446.0296979243</v>
       </c>
       <c r="G20" t="n">
-        <v>247858.8950529562</v>
+        <v>255381.9922286432</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>71796104</v>
+        <v>81462099</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>92353141</v>
+        <v>93790251</v>
       </c>
       <c r="E21" t="n">
-        <v>532178634</v>
+        <v>540459883</v>
       </c>
       <c r="F21" t="n">
-        <v>540470.5663051035</v>
+        <v>552006.0055341816</v>
       </c>
       <c r="G21" t="n">
-        <v>487873.7397655225</v>
+        <v>471970.1510141863</v>
       </c>
       <c r="H21" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I21" t="n">
-        <v>17397326</v>
+        <v>17829396</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>109961280</v>
+        <v>111077559</v>
       </c>
       <c r="E22" t="n">
-        <v>270547710</v>
+        <v>273294192</v>
       </c>
       <c r="F22" t="n">
-        <v>34901.1024809188</v>
+        <v>32341.28145648512</v>
       </c>
       <c r="G22" t="n">
-        <v>68095.49983415865</v>
+        <v>59093.9929380572</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>2049415</v>
+        <v>2720009</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18077059</v>
+        <v>18192304</v>
       </c>
       <c r="E23" t="n">
-        <v>18077059</v>
+        <v>18192304</v>
       </c>
       <c r="F23" t="n">
-        <v>55318.74507780201</v>
+        <v>36481.98472280763</v>
       </c>
       <c r="G23" t="n">
-        <v>34259.6158101237</v>
+        <v>37806.18455546087</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2941720</v>
+        <v>2964559</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>51627664</v>
+        <v>52268899</v>
       </c>
       <c r="E24" t="n">
-        <v>334791659</v>
+        <v>338949900</v>
       </c>
       <c r="F24" t="n">
-        <v>75254.08001165109</v>
+        <v>77708.07839114351</v>
       </c>
       <c r="G24" t="n">
-        <v>103366.3854193854</v>
+        <v>126469.4900368717</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>16827945</v>
+        <v>17562696</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24907474</v>
+        <v>25271307</v>
       </c>
       <c r="E25" t="n">
-        <v>149026425</v>
+        <v>151203312</v>
       </c>
       <c r="F25" t="n">
-        <v>93807.02751845591</v>
+        <v>65562.66578396727</v>
       </c>
       <c r="G25" t="n">
-        <v>91300.27368753444</v>
+        <v>91099.40218568037</v>
       </c>
       <c r="H25" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>12317555</v>
+        <v>12589839</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>34898631</v>
+        <v>35506119</v>
       </c>
       <c r="E26" t="n">
-        <v>174160256</v>
+        <v>177191900</v>
       </c>
       <c r="F26" t="n">
         <v>13758.39668534685</v>
@@ -1352,7 +1352,7 @@
         <v>0.16</v>
       </c>
       <c r="I26" t="n">
-        <v>10669943</v>
+        <v>10845223</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>73170573</v>
+        <v>74245456</v>
       </c>
       <c r="E27" t="n">
-        <v>697990514</v>
+        <v>708241552</v>
       </c>
       <c r="F27" t="n">
-        <v>251514.2573705199</v>
+        <v>20948.85094063836</v>
       </c>
       <c r="G27" t="n">
-        <v>316006.199181028</v>
+        <v>23437.26215700855</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>21523054</v>
+        <v>22667026</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>621555106</v>
+        <v>628721102</v>
       </c>
       <c r="E28" t="n">
-        <v>2407191222</v>
+        <v>2434944069</v>
       </c>
       <c r="F28" t="n">
-        <v>236317.5110287241</v>
+        <v>238611.930564302</v>
       </c>
       <c r="G28" t="n">
-        <v>291018.1295472567</v>
+        <v>275669.4673468551</v>
       </c>
       <c r="H28" t="n">
         <v>0.04</v>
       </c>
       <c r="I28" t="n">
-        <v>33868156</v>
+        <v>36570034</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>126639276</v>
+        <v>128576268</v>
       </c>
       <c r="E29" t="n">
-        <v>485808647</v>
+        <v>493239260</v>
       </c>
       <c r="F29" t="n">
-        <v>191759.8346279711</v>
+        <v>225113.1280834955</v>
       </c>
       <c r="G29" t="n">
-        <v>252883.7460326447</v>
+        <v>245953.838215621</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>33073952</v>
+        <v>33663855</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>494480530</v>
+        <v>494855838</v>
       </c>
       <c r="E30" t="n">
-        <v>494480530</v>
+        <v>494855838</v>
       </c>
       <c r="F30" t="n">
-        <v>641273.8078332043</v>
+        <v>831286.6042731853</v>
       </c>
       <c r="G30" t="n">
-        <v>965456.9934434743</v>
+        <v>1129028.844475233</v>
       </c>
       <c r="H30" t="n">
         <v>0.01</v>
       </c>
       <c r="I30" t="n">
-        <v>33083018</v>
+        <v>33104903</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2705997874</v>
+        <v>2737578904</v>
       </c>
       <c r="E31" t="n">
-        <v>2873065633</v>
+        <v>2906596470</v>
       </c>
       <c r="F31" t="n">
-        <v>233372.0878889562</v>
+        <v>233371.5703427932</v>
       </c>
       <c r="G31" t="n">
-        <v>332357.7419492582</v>
+        <v>332357.0048839319</v>
       </c>
       <c r="H31" t="n">
         <v>0.03</v>
       </c>
       <c r="I31" t="n">
-        <v>39546569</v>
+        <v>40695123</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>504692552</v>
+        <v>511308143</v>
       </c>
       <c r="E32" t="n">
-        <v>1756792771</v>
+        <v>1779821094</v>
       </c>
       <c r="F32" t="n">
-        <v>401636.7726656337</v>
+        <v>421039.3760662983</v>
       </c>
       <c r="G32" t="n">
-        <v>468302.1953891732</v>
+        <v>446710.3876054286</v>
       </c>
       <c r="H32" t="n">
         <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>31910231</v>
+        <v>33020459</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>406584289</v>
+        <v>413225439</v>
       </c>
       <c r="E33" t="n">
-        <v>2323338794</v>
+        <v>2361288223</v>
       </c>
       <c r="F33" t="n">
-        <v>186606.6021750931</v>
+        <v>197853.844319085</v>
       </c>
       <c r="G33" t="n">
-        <v>284261.4512197241</v>
+        <v>215456.8664167781</v>
       </c>
       <c r="H33" t="n">
         <v>0.09</v>
       </c>
       <c r="I33" t="n">
-        <v>39994717</v>
+        <v>41953506</v>
       </c>
     </row>
   </sheetData>

--- a/BinanceData20250221.xlsx
+++ b/BinanceData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>150961450</v>
+        <v>152334345</v>
       </c>
       <c r="E2" t="n">
-        <v>167288879</v>
+        <v>168810261</v>
       </c>
       <c r="F2" t="n">
-        <v>111293.1623817867</v>
+        <v>135305.4876398451</v>
       </c>
       <c r="G2" t="n">
-        <v>243292.7486521885</v>
+        <v>245776.1117476939</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>39156853</v>
+        <v>40609307</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>130209219</v>
+        <v>129336639</v>
       </c>
       <c r="E3" t="n">
-        <v>510381151</v>
+        <v>506960899</v>
       </c>
       <c r="F3" t="n">
-        <v>96508.76275813965</v>
+        <v>92677.56931109198</v>
       </c>
       <c r="G3" t="n">
-        <v>124696.9741646354</v>
+        <v>146439.5025621571</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I3" t="n">
-        <v>29776740</v>
+        <v>29337445</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>592192023</v>
+        <v>594621593</v>
       </c>
       <c r="E4" t="n">
-        <v>740744205</v>
+        <v>743783236</v>
       </c>
       <c r="F4" t="n">
-        <v>324234.643312983</v>
+        <v>363973.350019966</v>
       </c>
       <c r="G4" t="n">
-        <v>334848.4114360797</v>
+        <v>338615.1325477898</v>
       </c>
       <c r="H4" t="n">
         <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>56839496</v>
+        <v>57343147</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>144878027</v>
+        <v>145141077</v>
       </c>
       <c r="E5" t="n">
-        <v>144878027</v>
+        <v>145141077</v>
       </c>
       <c r="F5" t="n">
-        <v>213414.7658834449</v>
+        <v>268098.282626082</v>
       </c>
       <c r="G5" t="n">
-        <v>286703.0516349067</v>
+        <v>296410.666584442</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>72243713</v>
+        <v>74508292</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>68943304</v>
+        <v>69756411</v>
       </c>
       <c r="E6" t="n">
-        <v>353555405</v>
+        <v>357725184</v>
       </c>
       <c r="F6" t="n">
-        <v>48637.78696621988</v>
+        <v>49372.17895427022</v>
       </c>
       <c r="G6" t="n">
-        <v>106876.6357499175</v>
+        <v>113427.1462814664</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>25344821</v>
+        <v>26136378</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101291079</v>
+        <v>101667851</v>
       </c>
       <c r="E7" t="n">
-        <v>126298102</v>
+        <v>126767892</v>
       </c>
       <c r="F7" t="n">
-        <v>54850.84843102556</v>
+        <v>50523.31871929071</v>
       </c>
       <c r="G7" t="n">
-        <v>47950.34138941763</v>
+        <v>56844.03721764525</v>
       </c>
       <c r="H7" t="n">
         <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>10312553</v>
+        <v>10421008</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>86357057</v>
+        <v>83723835</v>
       </c>
       <c r="E8" t="n">
-        <v>241540799</v>
+        <v>234216658</v>
       </c>
       <c r="F8" t="n">
-        <v>66180.54854854442</v>
+        <v>60835.42993628056</v>
       </c>
       <c r="G8" t="n">
-        <v>98577.21642390531</v>
+        <v>95855.13390307035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>50663197</v>
+        <v>46779083</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146771553</v>
+        <v>146871239</v>
       </c>
       <c r="E9" t="n">
-        <v>146820902</v>
+        <v>146924998</v>
       </c>
       <c r="F9" t="n">
-        <v>52092.69802508053</v>
+        <v>42179.02540287562</v>
       </c>
       <c r="G9" t="n">
-        <v>87430.75811412225</v>
+        <v>79872.90877900786</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>2603178</v>
+        <v>2685905</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>674010389</v>
+        <v>679299013</v>
       </c>
       <c r="E10" t="n">
-        <v>674010389</v>
+        <v>679299013</v>
       </c>
       <c r="F10" t="n">
-        <v>706417.4564104473</v>
+        <v>1021341.665177202</v>
       </c>
       <c r="G10" t="n">
-        <v>996846.7891323704</v>
+        <v>1009724.434060151</v>
       </c>
       <c r="H10" t="n">
         <v>0.15</v>
       </c>
       <c r="I10" t="n">
-        <v>236701341</v>
+        <v>345872866</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>119631736</v>
+        <v>120822430</v>
       </c>
       <c r="E11" t="n">
-        <v>508112157</v>
+        <v>513094520</v>
       </c>
       <c r="F11" t="n">
-        <v>10020.69756771177</v>
+        <v>5853.826934327219</v>
       </c>
       <c r="G11" t="n">
-        <v>4149.895820441693</v>
+        <v>9326.046339808783</v>
       </c>
       <c r="H11" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I11" t="n">
-        <v>16032112</v>
+        <v>16520910</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1339694558</v>
+        <v>1357207595</v>
       </c>
       <c r="E12" t="n">
-        <v>6424109767</v>
+        <v>6508088370</v>
       </c>
       <c r="F12" t="n">
-        <v>777944.8172569411</v>
+        <v>774704.0303230905</v>
       </c>
       <c r="G12" t="n">
-        <v>1135606.02075402</v>
+        <v>1521679.323981413</v>
       </c>
       <c r="H12" t="n">
         <v>0.02</v>
       </c>
       <c r="I12" t="n">
-        <v>175804979</v>
+        <v>198709770</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>279667493</v>
+        <v>279955204</v>
       </c>
       <c r="E13" t="n">
-        <v>1207200153</v>
+        <v>1208442077</v>
       </c>
       <c r="F13" t="n">
-        <v>722252.5106277736</v>
+        <v>660239.9365988232</v>
       </c>
       <c r="G13" t="n">
-        <v>687333.0014368269</v>
+        <v>774278.6612402034</v>
       </c>
       <c r="H13" t="n">
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>106679661</v>
+        <v>111044505</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>116644810</v>
+        <v>116937593</v>
       </c>
       <c r="E14" t="n">
-        <v>116644810</v>
+        <v>116937593</v>
       </c>
       <c r="F14" t="n">
-        <v>52364.764741641</v>
+        <v>53685.09391980957</v>
       </c>
       <c r="G14" t="n">
-        <v>66968.18611684114</v>
+        <v>66264.08044204664</v>
       </c>
       <c r="H14" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>7468170</v>
+        <v>6386303</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2049977852</v>
+        <v>2045578193</v>
       </c>
       <c r="E15" t="n">
-        <v>2049977852</v>
+        <v>2045578193</v>
       </c>
       <c r="F15" t="n">
-        <v>9382280.692119699</v>
+        <v>8835004.575605687</v>
       </c>
       <c r="G15" t="n">
-        <v>11008885.79175217</v>
+        <v>13602798.58991297</v>
       </c>
       <c r="H15" t="n">
         <v>0.01</v>
       </c>
       <c r="I15" t="n">
-        <v>7028215479</v>
+        <v>7467020847</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>210409904</v>
+        <v>208578487</v>
       </c>
       <c r="E16" t="n">
-        <v>1191470163</v>
+        <v>1181099551</v>
       </c>
       <c r="F16" t="n">
-        <v>313846.255074102</v>
+        <v>324568.8903999061</v>
       </c>
       <c r="G16" t="n">
-        <v>389793.2811329051</v>
+        <v>401558.6056132024</v>
       </c>
       <c r="H16" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>69388845</v>
+        <v>69906143</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>350003596</v>
+        <v>350341534</v>
       </c>
       <c r="E17" t="n">
-        <v>3148849381</v>
+        <v>3151889677</v>
       </c>
       <c r="F17" t="n">
-        <v>801738.7276614914</v>
+        <v>9709.653875256707</v>
       </c>
       <c r="G17" t="n">
-        <v>1231558.338706028</v>
+        <v>12323.7030508761</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I17" t="n">
-        <v>47779039</v>
+        <v>47892155</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50025998</v>
+        <v>52344008</v>
       </c>
       <c r="E18" t="n">
-        <v>289629858</v>
+        <v>303050177</v>
       </c>
       <c r="F18" t="n">
-        <v>57539.66999362495</v>
+        <v>99074.82639714406</v>
       </c>
       <c r="G18" t="n">
-        <v>91328.23929060035</v>
+        <v>120661.2843433798</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>26976920</v>
+        <v>38522942</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>321674708</v>
+        <v>319279569</v>
       </c>
       <c r="E19" t="n">
-        <v>326693200</v>
+        <v>324272387</v>
       </c>
       <c r="F19" t="n">
-        <v>217722.2757397548</v>
+        <v>211326.7006145281</v>
       </c>
       <c r="G19" t="n">
-        <v>385097.8125310827</v>
+        <v>387584.3495103061</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I19" t="n">
-        <v>17216546</v>
+        <v>17996043</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>305623037</v>
+        <v>304711710</v>
       </c>
       <c r="E20" t="n">
-        <v>305623037</v>
+        <v>304711710</v>
       </c>
       <c r="F20" t="n">
-        <v>144446.0296979243</v>
+        <v>214123.3789482658</v>
       </c>
       <c r="G20" t="n">
-        <v>255381.9922286432</v>
+        <v>321633.5397115457</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>81462099</v>
+        <v>80923444</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>93790251</v>
+        <v>93218397</v>
       </c>
       <c r="E21" t="n">
-        <v>540459883</v>
+        <v>537164610</v>
       </c>
       <c r="F21" t="n">
-        <v>552006.0055341816</v>
+        <v>484906.1962881439</v>
       </c>
       <c r="G21" t="n">
-        <v>471970.1510141863</v>
+        <v>549893.2165155421</v>
       </c>
       <c r="H21" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I21" t="n">
-        <v>17829396</v>
+        <v>18271566</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>111077559</v>
+        <v>111123394</v>
       </c>
       <c r="E22" t="n">
-        <v>273294192</v>
+        <v>273406965</v>
       </c>
       <c r="F22" t="n">
-        <v>32341.28145648512</v>
+        <v>39777.12204764693</v>
       </c>
       <c r="G22" t="n">
-        <v>59093.9929380572</v>
+        <v>69587.32070601323</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I22" t="n">
-        <v>2720009</v>
+        <v>2137823</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18192304</v>
+        <v>18234662</v>
       </c>
       <c r="E23" t="n">
-        <v>18192304</v>
+        <v>18235433</v>
       </c>
       <c r="F23" t="n">
-        <v>36481.98472280763</v>
+        <v>37581.16955455502</v>
       </c>
       <c r="G23" t="n">
-        <v>37806.18455546087</v>
+        <v>35655.05577135245</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>2964559</v>
+        <v>2965467</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>52268899</v>
+        <v>52106351</v>
       </c>
       <c r="E24" t="n">
-        <v>338949900</v>
+        <v>337895817</v>
       </c>
       <c r="F24" t="n">
-        <v>77708.07839114351</v>
+        <v>110460.7312586463</v>
       </c>
       <c r="G24" t="n">
-        <v>126469.4900368717</v>
+        <v>141369.9647004882</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>17562696</v>
+        <v>17708162</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25271307</v>
+        <v>25153128</v>
       </c>
       <c r="E25" t="n">
-        <v>151203312</v>
+        <v>150496222</v>
       </c>
       <c r="F25" t="n">
-        <v>65562.66578396727</v>
+        <v>78400.66701006841</v>
       </c>
       <c r="G25" t="n">
-        <v>91099.40218568037</v>
+        <v>102291.4106711849</v>
       </c>
       <c r="H25" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>12589839</v>
+        <v>12971069</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>35506119</v>
+        <v>35646506</v>
       </c>
       <c r="E26" t="n">
-        <v>177191900</v>
+        <v>177892496</v>
       </c>
       <c r="F26" t="n">
-        <v>13758.39668534685</v>
+        <v>12489.47271075361</v>
       </c>
       <c r="G26" t="n">
-        <v>5160.060787720662</v>
+        <v>2967.14931862475</v>
       </c>
       <c r="H26" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="I26" t="n">
-        <v>10845223</v>
+        <v>11024389</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>74245456</v>
+        <v>74131064</v>
       </c>
       <c r="E27" t="n">
-        <v>708241552</v>
+        <v>707135351</v>
       </c>
       <c r="F27" t="n">
-        <v>20948.85094063836</v>
+        <v>13728.12968985179</v>
       </c>
       <c r="G27" t="n">
-        <v>23437.26215700855</v>
+        <v>19018.41355291637</v>
       </c>
       <c r="H27" t="n">
         <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>22667026</v>
+        <v>22706469</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>628721102</v>
+        <v>631138539</v>
       </c>
       <c r="E28" t="n">
-        <v>2434944069</v>
+        <v>2444306442</v>
       </c>
       <c r="F28" t="n">
-        <v>238611.930564302</v>
+        <v>249399.8972549347</v>
       </c>
       <c r="G28" t="n">
-        <v>275669.4673468551</v>
+        <v>298687.6843921606</v>
       </c>
       <c r="H28" t="n">
         <v>0.04</v>
       </c>
       <c r="I28" t="n">
-        <v>36570034</v>
+        <v>38669021</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>128576268</v>
+        <v>128729889</v>
       </c>
       <c r="E29" t="n">
-        <v>493239260</v>
+        <v>493828576</v>
       </c>
       <c r="F29" t="n">
-        <v>225113.1280834955</v>
+        <v>246068.9848309307</v>
       </c>
       <c r="G29" t="n">
-        <v>245953.838215621</v>
+        <v>246654.4810693671</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>33663855</v>
+        <v>35623794</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>494855838</v>
+        <v>494714546</v>
       </c>
       <c r="E30" t="n">
-        <v>494855838</v>
+        <v>494714546</v>
       </c>
       <c r="F30" t="n">
-        <v>831286.6042731853</v>
+        <v>833961.9553186153</v>
       </c>
       <c r="G30" t="n">
-        <v>1129028.844475233</v>
+        <v>1051833.650202186</v>
       </c>
       <c r="H30" t="n">
         <v>0.01</v>
       </c>
       <c r="I30" t="n">
-        <v>33104903</v>
+        <v>33507387</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2737578904</v>
+        <v>2737317866</v>
       </c>
       <c r="E31" t="n">
-        <v>2906596470</v>
+        <v>2906319315</v>
       </c>
       <c r="F31" t="n">
-        <v>233371.5703427932</v>
+        <v>225558.2389641905</v>
       </c>
       <c r="G31" t="n">
-        <v>332357.0048839319</v>
+        <v>294134.0139522844</v>
       </c>
       <c r="H31" t="n">
         <v>0.03</v>
       </c>
       <c r="I31" t="n">
-        <v>40695123</v>
+        <v>41638783</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>511308143</v>
+        <v>512484943</v>
       </c>
       <c r="E32" t="n">
-        <v>1779821094</v>
+        <v>1783917435</v>
       </c>
       <c r="F32" t="n">
-        <v>421039.3760662983</v>
+        <v>418129.815214498</v>
       </c>
       <c r="G32" t="n">
-        <v>446710.3876054286</v>
+        <v>449901.8984626469</v>
       </c>
       <c r="H32" t="n">
         <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>33020459</v>
+        <v>34925983</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>413225439</v>
+        <v>411404815</v>
       </c>
       <c r="E33" t="n">
-        <v>2361288223</v>
+        <v>2350884658</v>
       </c>
       <c r="F33" t="n">
-        <v>197853.844319085</v>
+        <v>194974.7041109992</v>
       </c>
       <c r="G33" t="n">
-        <v>215456.8664167781</v>
+        <v>281586.8081556647</v>
       </c>
       <c r="H33" t="n">
         <v>0.09</v>
       </c>
       <c r="I33" t="n">
-        <v>41953506</v>
+        <v>42930293</v>
       </c>
     </row>
   </sheetData>

--- a/BinanceData20250221.xlsx
+++ b/BinanceData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>152334345</v>
+        <v>152069455</v>
       </c>
       <c r="E2" t="n">
-        <v>168810261</v>
+        <v>168516721</v>
       </c>
       <c r="F2" t="n">
-        <v>135305.4876398451</v>
+        <v>149941.9794137036</v>
       </c>
       <c r="G2" t="n">
-        <v>245776.1117476939</v>
+        <v>265478.393959795</v>
       </c>
       <c r="H2" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>40609307</v>
+        <v>40811745</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>129336639</v>
+        <v>128635073</v>
       </c>
       <c r="E3" t="n">
-        <v>506960899</v>
+        <v>504210971</v>
       </c>
       <c r="F3" t="n">
-        <v>92677.56931109198</v>
+        <v>105065.4834809971</v>
       </c>
       <c r="G3" t="n">
-        <v>146439.5025621571</v>
+        <v>134252.4373401618</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I3" t="n">
-        <v>29337445</v>
+        <v>28490584</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>594621593</v>
+        <v>591082974</v>
       </c>
       <c r="E4" t="n">
-        <v>743783236</v>
+        <v>739356950</v>
       </c>
       <c r="F4" t="n">
-        <v>363973.350019966</v>
+        <v>347400.5060296013</v>
       </c>
       <c r="G4" t="n">
-        <v>338615.1325477898</v>
+        <v>353274.9349361226</v>
       </c>
       <c r="H4" t="n">
         <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>57343147</v>
+        <v>56934426</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>145141077</v>
+        <v>145232824</v>
       </c>
       <c r="E5" t="n">
-        <v>145141077</v>
+        <v>145232824</v>
       </c>
       <c r="F5" t="n">
-        <v>268098.282626082</v>
+        <v>282281.0780260339</v>
       </c>
       <c r="G5" t="n">
-        <v>296410.666584442</v>
+        <v>345836.0979000036</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>74508292</v>
+        <v>74577352</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69756411</v>
+        <v>69086657</v>
       </c>
       <c r="E6" t="n">
-        <v>357725184</v>
+        <v>354290549</v>
       </c>
       <c r="F6" t="n">
-        <v>49372.17895427022</v>
+        <v>40964.50801297474</v>
       </c>
       <c r="G6" t="n">
-        <v>113427.1462814664</v>
+        <v>121611.7476562006</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>26136378</v>
+        <v>25906982</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101667851</v>
+        <v>101074568</v>
       </c>
       <c r="E7" t="n">
-        <v>126767892</v>
+        <v>126028138</v>
       </c>
       <c r="F7" t="n">
-        <v>50523.31871929071</v>
+        <v>57454.34882043023</v>
       </c>
       <c r="G7" t="n">
-        <v>56844.03721764525</v>
+        <v>49963.65729308478</v>
       </c>
       <c r="H7" t="n">
         <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>10421008</v>
+        <v>10441192</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>83723835</v>
+        <v>84692640</v>
       </c>
       <c r="E8" t="n">
-        <v>234216658</v>
+        <v>236928716</v>
       </c>
       <c r="F8" t="n">
-        <v>60835.42993628056</v>
+        <v>70072.38653144729</v>
       </c>
       <c r="G8" t="n">
-        <v>95855.13390307035</v>
+        <v>98697.62472706927</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>46779083</v>
+        <v>47662050</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146871239</v>
+        <v>146673541</v>
       </c>
       <c r="E9" t="n">
-        <v>146924998</v>
+        <v>146727228</v>
       </c>
       <c r="F9" t="n">
-        <v>42179.02540287562</v>
+        <v>41639.93398679799</v>
       </c>
       <c r="G9" t="n">
-        <v>79872.90877900786</v>
+        <v>77125.04549071129</v>
       </c>
       <c r="H9" t="n">
         <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>2685905</v>
+        <v>2701397</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>679299013</v>
+        <v>673113301</v>
       </c>
       <c r="E10" t="n">
-        <v>679299013</v>
+        <v>673113301</v>
       </c>
       <c r="F10" t="n">
-        <v>1021341.665177202</v>
+        <v>924514.6659007613</v>
       </c>
       <c r="G10" t="n">
-        <v>1009724.434060151</v>
+        <v>935282.4496843652</v>
       </c>
       <c r="H10" t="n">
         <v>0.15</v>
       </c>
       <c r="I10" t="n">
-        <v>345872866</v>
+        <v>344897521</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>120822430</v>
+        <v>120636321</v>
       </c>
       <c r="E11" t="n">
-        <v>513094520</v>
+        <v>512266678</v>
       </c>
       <c r="F11" t="n">
-        <v>5853.826934327219</v>
+        <v>9232.074850858597</v>
       </c>
       <c r="G11" t="n">
-        <v>9326.046339808783</v>
+        <v>5765.568275452918</v>
       </c>
       <c r="H11" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I11" t="n">
-        <v>16520910</v>
+        <v>14505333</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1357207595</v>
+        <v>1357776129</v>
       </c>
       <c r="E12" t="n">
-        <v>6508088370</v>
+        <v>6510814604</v>
       </c>
       <c r="F12" t="n">
-        <v>774704.0303230905</v>
+        <v>703759.0475016925</v>
       </c>
       <c r="G12" t="n">
-        <v>1521679.323981413</v>
+        <v>1169058.48507356</v>
       </c>
       <c r="H12" t="n">
         <v>0.02</v>
       </c>
       <c r="I12" t="n">
-        <v>198709770</v>
+        <v>205112225</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>279955204</v>
+        <v>279024847</v>
       </c>
       <c r="E13" t="n">
-        <v>1208442077</v>
+        <v>1204426138</v>
       </c>
       <c r="F13" t="n">
-        <v>660239.9365988232</v>
+        <v>654779.6673366373</v>
       </c>
       <c r="G13" t="n">
-        <v>774278.6612402034</v>
+        <v>735006.3517891171</v>
       </c>
       <c r="H13" t="n">
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>111044505</v>
+        <v>110767477</v>
       </c>
     </row>
     <row r="14">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>116937593</v>
+        <v>117146545</v>
       </c>
       <c r="E14" t="n">
-        <v>116937593</v>
+        <v>117146545</v>
       </c>
       <c r="F14" t="n">
         <v>53685.09391980957</v>
@@ -932,7 +932,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>6386303</v>
+        <v>6363662</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2045578193</v>
+        <v>2007059640</v>
       </c>
       <c r="E15" t="n">
-        <v>2045578193</v>
+        <v>2007059640</v>
       </c>
       <c r="F15" t="n">
-        <v>8835004.575605687</v>
+        <v>9966365.066043401</v>
       </c>
       <c r="G15" t="n">
-        <v>13602798.58991297</v>
+        <v>12201879.79760025</v>
       </c>
       <c r="H15" t="n">
         <v>0.01</v>
       </c>
       <c r="I15" t="n">
-        <v>7467020847</v>
+        <v>5547885450</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>208578487</v>
+        <v>208396999</v>
       </c>
       <c r="E16" t="n">
-        <v>1181099551</v>
+        <v>1180071858</v>
       </c>
       <c r="F16" t="n">
-        <v>324568.8903999061</v>
+        <v>314511.5633157431</v>
       </c>
       <c r="G16" t="n">
-        <v>401558.6056132024</v>
+        <v>423079.4386807571</v>
       </c>
       <c r="H16" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>69906143</v>
+        <v>69281541</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>350341534</v>
+        <v>348018635</v>
       </c>
       <c r="E17" t="n">
-        <v>3151889677</v>
+        <v>3130991439</v>
       </c>
       <c r="F17" t="n">
-        <v>9709.653875256707</v>
+        <v>14722.73792251664</v>
       </c>
       <c r="G17" t="n">
-        <v>12323.7030508761</v>
+        <v>7615.122784790379</v>
       </c>
       <c r="H17" t="n">
         <v>0.09</v>
       </c>
       <c r="I17" t="n">
-        <v>47892155</v>
+        <v>46987606</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>52344008</v>
+        <v>50355892</v>
       </c>
       <c r="E18" t="n">
-        <v>303050177</v>
+        <v>291539808</v>
       </c>
       <c r="F18" t="n">
-        <v>99074.82639714406</v>
+        <v>55855.43833362842</v>
       </c>
       <c r="G18" t="n">
-        <v>120661.2843433798</v>
+        <v>155375.6915592138</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>38522942</v>
+        <v>39079540</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>319279569</v>
+        <v>318599268</v>
       </c>
       <c r="E19" t="n">
-        <v>324272387</v>
+        <v>323579267</v>
       </c>
       <c r="F19" t="n">
-        <v>211326.7006145281</v>
+        <v>210731.7650980781</v>
       </c>
       <c r="G19" t="n">
-        <v>387584.3495103061</v>
+        <v>367992.3070955078</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I19" t="n">
-        <v>17996043</v>
+        <v>18249381</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>304711710</v>
+        <v>305673601</v>
       </c>
       <c r="E20" t="n">
-        <v>304711710</v>
+        <v>305673601</v>
       </c>
       <c r="F20" t="n">
-        <v>214123.3789482658</v>
+        <v>217530.0814481873</v>
       </c>
       <c r="G20" t="n">
-        <v>321633.5397115457</v>
+        <v>290634.2835655527</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>80923444</v>
+        <v>72021078</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>93218397</v>
+        <v>92973355</v>
       </c>
       <c r="E21" t="n">
-        <v>537164610</v>
+        <v>535752572</v>
       </c>
       <c r="F21" t="n">
-        <v>484906.1962881439</v>
+        <v>558972.9308446256</v>
       </c>
       <c r="G21" t="n">
-        <v>549893.2165155421</v>
+        <v>557795.5831967292</v>
       </c>
       <c r="H21" t="n">
         <v>0.19</v>
       </c>
       <c r="I21" t="n">
-        <v>18271566</v>
+        <v>18288524</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>111123394</v>
+        <v>110925481</v>
       </c>
       <c r="E22" t="n">
-        <v>273406965</v>
+        <v>272920022</v>
       </c>
       <c r="F22" t="n">
-        <v>39777.12204764693</v>
+        <v>39924.46953377626</v>
       </c>
       <c r="G22" t="n">
-        <v>69587.32070601323</v>
+        <v>61823.26019764645</v>
       </c>
       <c r="H22" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>2137823</v>
+        <v>2291843</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18234662</v>
+        <v>18254988</v>
       </c>
       <c r="E23" t="n">
-        <v>18235433</v>
+        <v>18254988</v>
       </c>
       <c r="F23" t="n">
-        <v>37581.16955455502</v>
+        <v>37443.67576076013</v>
       </c>
       <c r="G23" t="n">
-        <v>35655.05577135245</v>
+        <v>30568.00344662853</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>2965467</v>
+        <v>2889948</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>52106351</v>
+        <v>52223207</v>
       </c>
       <c r="E24" t="n">
-        <v>337895817</v>
+        <v>338653599</v>
       </c>
       <c r="F24" t="n">
-        <v>110460.7312586463</v>
+        <v>16774.71726421442</v>
       </c>
       <c r="G24" t="n">
-        <v>141369.9647004882</v>
+        <v>20205.47631559512</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I24" t="n">
-        <v>17708162</v>
+        <v>17640934</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25153128</v>
+        <v>25140767</v>
       </c>
       <c r="E25" t="n">
-        <v>150496222</v>
+        <v>150422260</v>
       </c>
       <c r="F25" t="n">
-        <v>78400.66701006841</v>
+        <v>77002.12880073913</v>
       </c>
       <c r="G25" t="n">
-        <v>102291.4106711849</v>
+        <v>105448.9556182583</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>12971069</v>
+        <v>13156971</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>35646506</v>
+        <v>35605539</v>
       </c>
       <c r="E26" t="n">
-        <v>177892496</v>
+        <v>177688054</v>
       </c>
       <c r="F26" t="n">
-        <v>12489.47271075361</v>
+        <v>9112.539858965638</v>
       </c>
       <c r="G26" t="n">
-        <v>2967.14931862475</v>
+        <v>6098.633021979897</v>
       </c>
       <c r="H26" t="n">
         <v>0.31</v>
       </c>
       <c r="I26" t="n">
-        <v>11024389</v>
+        <v>10729090</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>74131064</v>
+        <v>74016001</v>
       </c>
       <c r="E27" t="n">
-        <v>707135351</v>
+        <v>706052398</v>
       </c>
       <c r="F27" t="n">
-        <v>13728.12968985179</v>
+        <v>195488.5895498783</v>
       </c>
       <c r="G27" t="n">
-        <v>19018.41355291637</v>
+        <v>304736.7148406791</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I27" t="n">
-        <v>22706469</v>
+        <v>22586811</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>631138539</v>
+        <v>627282243</v>
       </c>
       <c r="E28" t="n">
-        <v>2444306442</v>
+        <v>2429371580</v>
       </c>
       <c r="F28" t="n">
-        <v>249399.8972549347</v>
+        <v>254844.5483098519</v>
       </c>
       <c r="G28" t="n">
-        <v>298687.6843921606</v>
+        <v>289940.3678710438</v>
       </c>
       <c r="H28" t="n">
         <v>0.04</v>
       </c>
       <c r="I28" t="n">
-        <v>38669021</v>
+        <v>39029562</v>
       </c>
     </row>
     <row r="29">
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>128729889</v>
+        <v>127811914</v>
       </c>
       <c r="E29" t="n">
-        <v>493828576</v>
+        <v>490307076</v>
       </c>
       <c r="F29" t="n">
         <v>246068.9848309307</v>
@@ -1457,7 +1457,7 @@
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>35623794</v>
+        <v>36983574</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>494714546</v>
+        <v>495111890</v>
       </c>
       <c r="E30" t="n">
-        <v>494714546</v>
+        <v>495111890</v>
       </c>
       <c r="F30" t="n">
-        <v>833961.9553186153</v>
+        <v>830600.9200975054</v>
       </c>
       <c r="G30" t="n">
-        <v>1051833.650202186</v>
+        <v>1057161.350714512</v>
       </c>
       <c r="H30" t="n">
         <v>0.01</v>
       </c>
       <c r="I30" t="n">
-        <v>33507387</v>
+        <v>33861602</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2737317866</v>
+        <v>2723703759</v>
       </c>
       <c r="E31" t="n">
-        <v>2906319315</v>
+        <v>2891864676</v>
       </c>
       <c r="F31" t="n">
-        <v>225558.2389641905</v>
+        <v>230134.5941183921</v>
       </c>
       <c r="G31" t="n">
-        <v>294134.0139522844</v>
+        <v>294673.0593577991</v>
       </c>
       <c r="H31" t="n">
         <v>0.03</v>
       </c>
       <c r="I31" t="n">
-        <v>41638783</v>
+        <v>42260855</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>512484943</v>
+        <v>510343475</v>
       </c>
       <c r="E32" t="n">
-        <v>1783917435</v>
+        <v>1776463164</v>
       </c>
       <c r="F32" t="n">
-        <v>418129.815214498</v>
+        <v>405827.4172228631</v>
       </c>
       <c r="G32" t="n">
-        <v>449901.8984626469</v>
+        <v>479019.5655600707</v>
       </c>
       <c r="H32" t="n">
         <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>34925983</v>
+        <v>35169354</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>411404815</v>
+        <v>411065469</v>
       </c>
       <c r="E33" t="n">
-        <v>2350884658</v>
+        <v>2348945539</v>
       </c>
       <c r="F33" t="n">
-        <v>194974.7041109992</v>
+        <v>181202.4796868939</v>
       </c>
       <c r="G33" t="n">
-        <v>281586.8081556647</v>
+        <v>262019.0153080767</v>
       </c>
       <c r="H33" t="n">
         <v>0.09</v>
       </c>
       <c r="I33" t="n">
-        <v>42930293</v>
+        <v>43064121</v>
       </c>
     </row>
   </sheetData>

--- a/BinanceData20250221.xlsx
+++ b/BinanceData20250221.xlsx
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>152069455</v>
+        <v>152068206</v>
       </c>
       <c r="E2" t="n">
-        <v>168516721</v>
+        <v>168515338</v>
       </c>
       <c r="F2" t="n">
         <v>149941.9794137036</v>
@@ -512,7 +512,7 @@
         <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>40811745</v>
+        <v>40194393</v>
       </c>
     </row>
     <row r="3">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>128635073</v>
+        <v>128378268</v>
       </c>
       <c r="E3" t="n">
-        <v>504210971</v>
+        <v>503204373</v>
       </c>
       <c r="F3" t="n">
         <v>105065.4834809971</v>
@@ -547,7 +547,7 @@
         <v>0.02</v>
       </c>
       <c r="I3" t="n">
-        <v>28490584</v>
+        <v>28087637</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>591082974</v>
+        <v>592879186</v>
       </c>
       <c r="E4" t="n">
-        <v>739356950</v>
+        <v>741603744</v>
       </c>
       <c r="F4" t="n">
-        <v>347400.5060296013</v>
+        <v>355136.5585537343</v>
       </c>
       <c r="G4" t="n">
-        <v>353274.9349361226</v>
+        <v>347997.5965684825</v>
       </c>
       <c r="H4" t="n">
         <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>56934426</v>
+        <v>56117553</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>145232824</v>
+        <v>145535230</v>
       </c>
       <c r="E5" t="n">
-        <v>145232824</v>
+        <v>145535230</v>
       </c>
       <c r="F5" t="n">
-        <v>282281.0780260339</v>
+        <v>261220.7740515741</v>
       </c>
       <c r="G5" t="n">
-        <v>345836.0979000036</v>
+        <v>348932.9734075583</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>74577352</v>
+        <v>74922236</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69086657</v>
+        <v>69088134</v>
       </c>
       <c r="E6" t="n">
-        <v>354290549</v>
+        <v>354298123</v>
       </c>
       <c r="F6" t="n">
-        <v>40964.50801297474</v>
+        <v>47160.64104745293</v>
       </c>
       <c r="G6" t="n">
-        <v>121611.7476562006</v>
+        <v>128551.0460381726</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>25906982</v>
+        <v>25536694</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101074568</v>
+        <v>101107192</v>
       </c>
       <c r="E7" t="n">
-        <v>126028138</v>
+        <v>126068816</v>
       </c>
       <c r="F7" t="n">
-        <v>57454.34882043023</v>
+        <v>56291.01035266431</v>
       </c>
       <c r="G7" t="n">
-        <v>49963.65729308478</v>
+        <v>49991.9071640378</v>
       </c>
       <c r="H7" t="n">
         <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>10441192</v>
+        <v>10445855</v>
       </c>
     </row>
     <row r="8">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84692640</v>
+        <v>84468064</v>
       </c>
       <c r="E8" t="n">
-        <v>236928716</v>
+        <v>236300462</v>
       </c>
       <c r="F8" t="n">
         <v>70072.38653144729</v>
@@ -722,7 +722,7 @@
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>47662050</v>
+        <v>52149672</v>
       </c>
     </row>
     <row r="9">
@@ -742,10 +742,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146673541</v>
+        <v>146766062</v>
       </c>
       <c r="E9" t="n">
-        <v>146727228</v>
+        <v>146819783</v>
       </c>
       <c r="F9" t="n">
         <v>41639.93398679799</v>
@@ -757,7 +757,7 @@
         <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>2701397</v>
+        <v>2692440</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>673113301</v>
+        <v>673567686</v>
       </c>
       <c r="E10" t="n">
-        <v>673113301</v>
+        <v>673567686</v>
       </c>
       <c r="F10" t="n">
-        <v>924514.6659007613</v>
+        <v>924514.6646157384</v>
       </c>
       <c r="G10" t="n">
-        <v>935282.4496843652</v>
+        <v>935282.4483843758</v>
       </c>
       <c r="H10" t="n">
         <v>0.15</v>
       </c>
       <c r="I10" t="n">
-        <v>344897521</v>
+        <v>345875102</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>120636321</v>
+        <v>120450096</v>
       </c>
       <c r="E11" t="n">
-        <v>512266678</v>
+        <v>511460760</v>
       </c>
       <c r="F11" t="n">
-        <v>9232.074850858597</v>
+        <v>4719.59354524131</v>
       </c>
       <c r="G11" t="n">
-        <v>5765.568275452918</v>
+        <v>6851.770827288038</v>
       </c>
       <c r="H11" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I11" t="n">
-        <v>14505333</v>
+        <v>14508394</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1357776129</v>
+        <v>1361161562</v>
       </c>
       <c r="E12" t="n">
-        <v>6510814604</v>
+        <v>6527048448</v>
       </c>
       <c r="F12" t="n">
-        <v>703759.0475016925</v>
+        <v>644715.9757044248</v>
       </c>
       <c r="G12" t="n">
-        <v>1169058.48507356</v>
+        <v>1237785.790372282</v>
       </c>
       <c r="H12" t="n">
         <v>0.02</v>
       </c>
       <c r="I12" t="n">
-        <v>205112225</v>
+        <v>206671782</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>279024847</v>
+        <v>279867683</v>
       </c>
       <c r="E13" t="n">
-        <v>1204426138</v>
+        <v>1208064288</v>
       </c>
       <c r="F13" t="n">
-        <v>654779.6673366373</v>
+        <v>641320.2957107377</v>
       </c>
       <c r="G13" t="n">
-        <v>735006.3517891171</v>
+        <v>746474.4927958391</v>
       </c>
       <c r="H13" t="n">
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>110767477</v>
+        <v>110751575</v>
       </c>
     </row>
     <row r="14">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>117146545</v>
+        <v>117061357</v>
       </c>
       <c r="E14" t="n">
-        <v>117146545</v>
+        <v>117061357</v>
       </c>
       <c r="F14" t="n">
         <v>53685.09391980957</v>
@@ -932,7 +932,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>6363662</v>
+        <v>6318093</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2007059640</v>
+        <v>2007822808</v>
       </c>
       <c r="E15" t="n">
-        <v>2007059640</v>
+        <v>2007822808</v>
       </c>
       <c r="F15" t="n">
-        <v>9966365.066043401</v>
+        <v>11182588.33859885</v>
       </c>
       <c r="G15" t="n">
-        <v>12201879.79760025</v>
+        <v>13408915.10589552</v>
       </c>
       <c r="H15" t="n">
         <v>0.01</v>
       </c>
       <c r="I15" t="n">
-        <v>5547885450</v>
+        <v>7635411811</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>208396999</v>
+        <v>208207962</v>
       </c>
       <c r="E16" t="n">
-        <v>1180071858</v>
+        <v>1179001413</v>
       </c>
       <c r="F16" t="n">
-        <v>314511.5633157431</v>
+        <v>292312.8488229832</v>
       </c>
       <c r="G16" t="n">
-        <v>423079.4386807571</v>
+        <v>418583.4060814855</v>
       </c>
       <c r="H16" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>69281541</v>
+        <v>69046793</v>
       </c>
     </row>
     <row r="17">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>348018635</v>
+        <v>349585034</v>
       </c>
       <c r="E17" t="n">
-        <v>3130991439</v>
+        <v>3145083732</v>
       </c>
       <c r="F17" t="n">
         <v>14722.73792251664</v>
@@ -1037,7 +1037,7 @@
         <v>0.09</v>
       </c>
       <c r="I17" t="n">
-        <v>46987606</v>
+        <v>46334958</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50355892</v>
+        <v>50727813</v>
       </c>
       <c r="E18" t="n">
-        <v>291539808</v>
+        <v>293693078</v>
       </c>
       <c r="F18" t="n">
-        <v>55855.43833362842</v>
+        <v>53764.11623408435</v>
       </c>
       <c r="G18" t="n">
-        <v>155375.6915592138</v>
+        <v>115764.4197017326</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>39079540</v>
+        <v>39383609</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>318599268</v>
+        <v>319342590</v>
       </c>
       <c r="E19" t="n">
-        <v>323579267</v>
+        <v>324334208</v>
       </c>
       <c r="F19" t="n">
-        <v>210731.7650980781</v>
+        <v>216110.4458323027</v>
       </c>
       <c r="G19" t="n">
-        <v>367992.3070955078</v>
+        <v>366766.8247992302</v>
       </c>
       <c r="H19" t="n">
         <v>0.01</v>
       </c>
       <c r="I19" t="n">
-        <v>18249381</v>
+        <v>18224686</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>305673601</v>
+        <v>306107797</v>
       </c>
       <c r="E20" t="n">
-        <v>305673601</v>
+        <v>306107797</v>
       </c>
       <c r="F20" t="n">
-        <v>217530.0814481873</v>
+        <v>213457.7689540735</v>
       </c>
       <c r="G20" t="n">
-        <v>290634.2835655527</v>
+        <v>288061.4470840091</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>72021078</v>
+        <v>71609323</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>92973355</v>
+        <v>93390082</v>
       </c>
       <c r="E21" t="n">
-        <v>535752572</v>
+        <v>538153936</v>
       </c>
       <c r="F21" t="n">
-        <v>558972.9308446256</v>
+        <v>536679.3565002409</v>
       </c>
       <c r="G21" t="n">
-        <v>557795.5831967292</v>
+        <v>466604.5267801607</v>
       </c>
       <c r="H21" t="n">
         <v>0.19</v>
       </c>
       <c r="I21" t="n">
-        <v>18288524</v>
+        <v>18310533</v>
       </c>
     </row>
     <row r="22">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>110925481</v>
+        <v>111145848</v>
       </c>
       <c r="E22" t="n">
-        <v>272920022</v>
+        <v>273462211</v>
       </c>
       <c r="F22" t="n">
         <v>39924.46953377626</v>
@@ -1212,7 +1212,7 @@
         <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>2291843</v>
+        <v>2294137</v>
       </c>
     </row>
     <row r="23">
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18254988</v>
+        <v>18263584</v>
       </c>
       <c r="E23" t="n">
-        <v>18254988</v>
+        <v>18263584</v>
       </c>
       <c r="F23" t="n">
         <v>37443.67576076013</v>
@@ -1247,7 +1247,7 @@
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>2889948</v>
+        <v>2881802</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>52223207</v>
+        <v>52206221</v>
       </c>
       <c r="E24" t="n">
-        <v>338653599</v>
+        <v>338543451</v>
       </c>
       <c r="F24" t="n">
-        <v>16774.71726421442</v>
+        <v>16203.88894554429</v>
       </c>
       <c r="G24" t="n">
-        <v>20205.47631559512</v>
+        <v>21421.71247592058</v>
       </c>
       <c r="H24" t="n">
         <v>0.08</v>
       </c>
       <c r="I24" t="n">
-        <v>17640934</v>
+        <v>17634226</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25140767</v>
+        <v>25105654</v>
       </c>
       <c r="E25" t="n">
-        <v>150422260</v>
+        <v>150212173</v>
       </c>
       <c r="F25" t="n">
-        <v>77002.12880073913</v>
+        <v>79430.26668619244</v>
       </c>
       <c r="G25" t="n">
-        <v>105448.9556182583</v>
+        <v>111606.165354534</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>13156971</v>
+        <v>13223508</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>35605539</v>
+        <v>35601013</v>
       </c>
       <c r="E26" t="n">
-        <v>177688054</v>
+        <v>177665467</v>
       </c>
       <c r="F26" t="n">
         <v>9112.539858965638</v>
@@ -1352,7 +1352,7 @@
         <v>0.31</v>
       </c>
       <c r="I26" t="n">
-        <v>10729090</v>
+        <v>10688782</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>74016001</v>
+        <v>74221233</v>
       </c>
       <c r="E27" t="n">
-        <v>706052398</v>
+        <v>708006231</v>
       </c>
       <c r="F27" t="n">
-        <v>195488.5895498783</v>
+        <v>14181.92449374505</v>
       </c>
       <c r="G27" t="n">
-        <v>304736.7148406791</v>
+        <v>19346.0901585771</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>22586811</v>
+        <v>22449619</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>627282243</v>
+        <v>626310161</v>
       </c>
       <c r="E28" t="n">
-        <v>2429371580</v>
+        <v>2425606848</v>
       </c>
       <c r="F28" t="n">
-        <v>254844.5483098519</v>
+        <v>256223.3847799419</v>
       </c>
       <c r="G28" t="n">
-        <v>289940.3678710438</v>
+        <v>265722.9332244201</v>
       </c>
       <c r="H28" t="n">
         <v>0.04</v>
       </c>
       <c r="I28" t="n">
-        <v>39029562</v>
+        <v>38845870</v>
       </c>
     </row>
     <row r="29">
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>127811914</v>
+        <v>128043792</v>
       </c>
       <c r="E29" t="n">
-        <v>490307076</v>
+        <v>491196597</v>
       </c>
       <c r="F29" t="n">
         <v>246068.9848309307</v>
@@ -1457,7 +1457,7 @@
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>36983574</v>
+        <v>37456932</v>
       </c>
     </row>
     <row r="30">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>495111890</v>
+        <v>494715538</v>
       </c>
       <c r="E30" t="n">
-        <v>495111890</v>
+        <v>494715538</v>
       </c>
       <c r="F30" t="n">
         <v>830600.9200975054</v>
@@ -1492,7 +1492,7 @@
         <v>0.01</v>
       </c>
       <c r="I30" t="n">
-        <v>33861602</v>
+        <v>33754292</v>
       </c>
     </row>
     <row r="31">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2723703759</v>
+        <v>2733741248</v>
       </c>
       <c r="E31" t="n">
-        <v>2891864676</v>
+        <v>2902521878</v>
       </c>
       <c r="F31" t="n">
         <v>230134.5941183921</v>
@@ -1527,7 +1527,7 @@
         <v>0.03</v>
       </c>
       <c r="I31" t="n">
-        <v>42260855</v>
+        <v>42128111</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>510343475</v>
+        <v>511200914</v>
       </c>
       <c r="E32" t="n">
-        <v>1776463164</v>
+        <v>1779447837</v>
       </c>
       <c r="F32" t="n">
-        <v>405827.4172228631</v>
+        <v>412627.1519087962</v>
       </c>
       <c r="G32" t="n">
-        <v>479019.5655600707</v>
+        <v>458312.2949763925</v>
       </c>
       <c r="H32" t="n">
         <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>35169354</v>
+        <v>35356453</v>
       </c>
     </row>
     <row r="33">
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>411065469</v>
+        <v>410929824</v>
       </c>
       <c r="E33" t="n">
-        <v>2348945539</v>
+        <v>2348170421</v>
       </c>
       <c r="F33" t="n">
         <v>181202.4796868939</v>
@@ -1597,7 +1597,7 @@
         <v>0.09</v>
       </c>
       <c r="I33" t="n">
-        <v>43064121</v>
+        <v>42913051</v>
       </c>
     </row>
   </sheetData>

--- a/BinanceData20250221.xlsx
+++ b/BinanceData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>152068206</v>
+        <v>154054225</v>
       </c>
       <c r="E2" t="n">
-        <v>168515338</v>
+        <v>170716156</v>
       </c>
       <c r="F2" t="n">
-        <v>149941.9794137036</v>
+        <v>87871.37522964549</v>
       </c>
       <c r="G2" t="n">
-        <v>265478.393959795</v>
+        <v>263482.2290621024</v>
       </c>
       <c r="H2" t="n">
         <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>40194393</v>
+        <v>42057133</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>128378268</v>
+        <v>129488307</v>
       </c>
       <c r="E3" t="n">
-        <v>503204373</v>
+        <v>507555391</v>
       </c>
       <c r="F3" t="n">
-        <v>105065.4834809971</v>
+        <v>104185.9140803353</v>
       </c>
       <c r="G3" t="n">
-        <v>134252.4373401618</v>
+        <v>119704.4837354828</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I3" t="n">
-        <v>28087637</v>
+        <v>27481312</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>592879186</v>
+        <v>598868079</v>
       </c>
       <c r="E4" t="n">
-        <v>741603744</v>
+        <v>749094959</v>
       </c>
       <c r="F4" t="n">
-        <v>355136.5585537343</v>
+        <v>354463.4093398159</v>
       </c>
       <c r="G4" t="n">
-        <v>347997.5965684825</v>
+        <v>341148.9879224489</v>
       </c>
       <c r="H4" t="n">
         <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>56117553</v>
+        <v>56823233</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>145535230</v>
+        <v>148024507</v>
       </c>
       <c r="E5" t="n">
-        <v>145535230</v>
+        <v>148024507</v>
       </c>
       <c r="F5" t="n">
-        <v>261220.7740515741</v>
+        <v>224291.9530761661</v>
       </c>
       <c r="G5" t="n">
-        <v>348932.9734075583</v>
+        <v>317074.856855811</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>74922236</v>
+        <v>75720412</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69088134</v>
+        <v>69488738</v>
       </c>
       <c r="E6" t="n">
-        <v>354298123</v>
+        <v>356352501</v>
       </c>
       <c r="F6" t="n">
-        <v>47160.64104745293</v>
+        <v>48726.30507181425</v>
       </c>
       <c r="G6" t="n">
-        <v>128551.0460381726</v>
+        <v>103717.6150953638</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>25536694</v>
+        <v>24825335</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101107192</v>
+        <v>101764449</v>
       </c>
       <c r="E7" t="n">
-        <v>126068816</v>
+        <v>126888338</v>
       </c>
       <c r="F7" t="n">
-        <v>56291.01035266431</v>
+        <v>56007.95992211015</v>
       </c>
       <c r="G7" t="n">
-        <v>49991.9071640378</v>
+        <v>49391.93905127341</v>
       </c>
       <c r="H7" t="n">
         <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>10445855</v>
+        <v>10462310</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84468064</v>
+        <v>89009550</v>
       </c>
       <c r="E8" t="n">
-        <v>236300462</v>
+        <v>248981623</v>
       </c>
       <c r="F8" t="n">
-        <v>70072.38653144729</v>
+        <v>45719.89288292244</v>
       </c>
       <c r="G8" t="n">
-        <v>98697.62472706927</v>
+        <v>85419.80157149953</v>
       </c>
       <c r="H8" t="n">
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>52149672</v>
+        <v>52828738</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146766062</v>
+        <v>147972622</v>
       </c>
       <c r="E9" t="n">
-        <v>146819783</v>
+        <v>148026784</v>
       </c>
       <c r="F9" t="n">
-        <v>41639.93398679799</v>
+        <v>40570.37664803531</v>
       </c>
       <c r="G9" t="n">
-        <v>77125.04549071129</v>
+        <v>71300.36097186749</v>
       </c>
       <c r="H9" t="n">
         <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>2692440</v>
+        <v>2705697</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>673567686</v>
+        <v>697712526</v>
       </c>
       <c r="E10" t="n">
-        <v>673567686</v>
+        <v>697712526</v>
       </c>
       <c r="F10" t="n">
-        <v>924514.6646157384</v>
+        <v>1161687.857407903</v>
       </c>
       <c r="G10" t="n">
-        <v>935282.4483843758</v>
+        <v>1346889.574851953</v>
       </c>
       <c r="H10" t="n">
         <v>0.15</v>
       </c>
       <c r="I10" t="n">
-        <v>345875102</v>
+        <v>364726147</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>120450096</v>
+        <v>121251197</v>
       </c>
       <c r="E11" t="n">
-        <v>511460760</v>
+        <v>514779311</v>
       </c>
       <c r="F11" t="n">
-        <v>4719.59354524131</v>
+        <v>10008.21682648499</v>
       </c>
       <c r="G11" t="n">
-        <v>6851.770827288038</v>
+        <v>5747.624615455098</v>
       </c>
       <c r="H11" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="I11" t="n">
-        <v>14508394</v>
+        <v>14443742</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1361161562</v>
+        <v>1441881884</v>
       </c>
       <c r="E12" t="n">
-        <v>6527048448</v>
+        <v>6914118924</v>
       </c>
       <c r="F12" t="n">
-        <v>644715.9757044248</v>
+        <v>1180396.412481164</v>
       </c>
       <c r="G12" t="n">
-        <v>1237785.790372282</v>
+        <v>881040.1096366234</v>
       </c>
       <c r="H12" t="n">
         <v>0.02</v>
       </c>
       <c r="I12" t="n">
-        <v>206671782</v>
+        <v>233226334</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>279867683</v>
+        <v>286029805</v>
       </c>
       <c r="E13" t="n">
-        <v>1208064288</v>
+        <v>1234663424</v>
       </c>
       <c r="F13" t="n">
-        <v>641320.2957107377</v>
+        <v>603037.5501036353</v>
       </c>
       <c r="G13" t="n">
-        <v>746474.4927958391</v>
+        <v>671954.1828546961</v>
       </c>
       <c r="H13" t="n">
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>110751575</v>
+        <v>111133679</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>117061357</v>
+        <v>117574785</v>
       </c>
       <c r="E14" t="n">
-        <v>117061357</v>
+        <v>117574785</v>
       </c>
       <c r="F14" t="n">
-        <v>53685.09391980957</v>
+        <v>70970.56855678669</v>
       </c>
       <c r="G14" t="n">
-        <v>66264.08044204664</v>
+        <v>60068.92283738364</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I14" t="n">
-        <v>6318093</v>
+        <v>6314127</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2007822808</v>
+        <v>2004471787</v>
       </c>
       <c r="E15" t="n">
-        <v>2007822808</v>
+        <v>2004471787</v>
       </c>
       <c r="F15" t="n">
-        <v>11182588.33859885</v>
+        <v>10942268.17790361</v>
       </c>
       <c r="G15" t="n">
-        <v>13408915.10589552</v>
+        <v>12789109.89187335</v>
       </c>
       <c r="H15" t="n">
         <v>0.01</v>
       </c>
       <c r="I15" t="n">
-        <v>7635411811</v>
+        <v>7748229506</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>208207962</v>
+        <v>211809734</v>
       </c>
       <c r="E16" t="n">
-        <v>1179001413</v>
+        <v>1199396862</v>
       </c>
       <c r="F16" t="n">
-        <v>292312.8488229832</v>
+        <v>353092.4973406396</v>
       </c>
       <c r="G16" t="n">
-        <v>418583.4060814855</v>
+        <v>429009.0590938504</v>
       </c>
       <c r="H16" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>69046793</v>
+        <v>67019447</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>349585034</v>
+        <v>349325105</v>
       </c>
       <c r="E17" t="n">
-        <v>3145083732</v>
+        <v>3142745251</v>
       </c>
       <c r="F17" t="n">
-        <v>14722.73792251664</v>
+        <v>10660.88322079993</v>
       </c>
       <c r="G17" t="n">
-        <v>7615.122784790379</v>
+        <v>9158.830060163569</v>
       </c>
       <c r="H17" t="n">
         <v>0.09</v>
       </c>
       <c r="I17" t="n">
-        <v>46334958</v>
+        <v>44037164</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50727813</v>
+        <v>50366070</v>
       </c>
       <c r="E18" t="n">
-        <v>293693078</v>
+        <v>291598733</v>
       </c>
       <c r="F18" t="n">
-        <v>53764.11623408435</v>
+        <v>57031.13407765618</v>
       </c>
       <c r="G18" t="n">
-        <v>115764.4197017326</v>
+        <v>114817.3819444528</v>
       </c>
       <c r="H18" t="n">
         <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>39383609</v>
+        <v>41404975</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>319342590</v>
+        <v>324499084</v>
       </c>
       <c r="E19" t="n">
-        <v>324334208</v>
+        <v>329569069</v>
       </c>
       <c r="F19" t="n">
-        <v>216110.4458323027</v>
+        <v>239875.5447452623</v>
       </c>
       <c r="G19" t="n">
-        <v>366766.8247992302</v>
+        <v>420073.0151019405</v>
       </c>
       <c r="H19" t="n">
         <v>0.01</v>
       </c>
       <c r="I19" t="n">
-        <v>18224686</v>
+        <v>19099440</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>306107797</v>
+        <v>309932779</v>
       </c>
       <c r="E20" t="n">
-        <v>306107797</v>
+        <v>309932779</v>
       </c>
       <c r="F20" t="n">
-        <v>213457.7689540735</v>
+        <v>220670.8728204412</v>
       </c>
       <c r="G20" t="n">
-        <v>288061.4470840091</v>
+        <v>253544.8899891879</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>71609323</v>
+        <v>72308323</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>93390082</v>
+        <v>94360954</v>
       </c>
       <c r="E21" t="n">
-        <v>538153936</v>
+        <v>543748516</v>
       </c>
       <c r="F21" t="n">
-        <v>536679.3565002409</v>
+        <v>574718.695294927</v>
       </c>
       <c r="G21" t="n">
-        <v>466604.5267801607</v>
+        <v>534706.4435811511</v>
       </c>
       <c r="H21" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I21" t="n">
-        <v>18310533</v>
+        <v>18303299</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>111145848</v>
+        <v>111646725</v>
       </c>
       <c r="E22" t="n">
-        <v>273462211</v>
+        <v>274694563</v>
       </c>
       <c r="F22" t="n">
-        <v>39924.46953377626</v>
+        <v>38811.32410996803</v>
       </c>
       <c r="G22" t="n">
-        <v>61823.26019764645</v>
+        <v>62129.64872276716</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>2294137</v>
+        <v>2166952</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18263584</v>
+        <v>18294514</v>
       </c>
       <c r="E23" t="n">
-        <v>18263584</v>
+        <v>18294514</v>
       </c>
       <c r="F23" t="n">
-        <v>37443.67576076013</v>
+        <v>42168.86229991651</v>
       </c>
       <c r="G23" t="n">
-        <v>30568.00344662853</v>
+        <v>37247.54758395738</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2881802</v>
+        <v>2782857</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>52206221</v>
+        <v>52934975</v>
       </c>
       <c r="E24" t="n">
-        <v>338543451</v>
+        <v>343269223</v>
       </c>
       <c r="F24" t="n">
-        <v>16203.88894554429</v>
+        <v>13792.98117257148</v>
       </c>
       <c r="G24" t="n">
-        <v>21421.71247592058</v>
+        <v>17721.10067202796</v>
       </c>
       <c r="H24" t="n">
         <v>0.08</v>
       </c>
       <c r="I24" t="n">
-        <v>17634226</v>
+        <v>17626230</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25105654</v>
+        <v>25304578</v>
       </c>
       <c r="E25" t="n">
-        <v>150212173</v>
+        <v>151402378</v>
       </c>
       <c r="F25" t="n">
-        <v>79430.26668619244</v>
+        <v>82001.34603296444</v>
       </c>
       <c r="G25" t="n">
-        <v>111606.165354534</v>
+        <v>84096.74923891181</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>13223508</v>
+        <v>13585864</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>35601013</v>
+        <v>35948325</v>
       </c>
       <c r="E26" t="n">
-        <v>177665467</v>
+        <v>179398711</v>
       </c>
       <c r="F26" t="n">
-        <v>9112.539858965638</v>
+        <v>12254.67101519173</v>
       </c>
       <c r="G26" t="n">
-        <v>6098.633021979897</v>
+        <v>4415.800713444481</v>
       </c>
       <c r="H26" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="I26" t="n">
-        <v>10688782</v>
+        <v>10333085</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>74221233</v>
+        <v>75456927</v>
       </c>
       <c r="E27" t="n">
-        <v>708006231</v>
+        <v>719785057</v>
       </c>
       <c r="F27" t="n">
-        <v>14181.92449374505</v>
+        <v>11330.85328833609</v>
       </c>
       <c r="G27" t="n">
-        <v>19346.0901585771</v>
+        <v>25473.64163689452</v>
       </c>
       <c r="H27" t="n">
         <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>22449619</v>
+        <v>21992390</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>626310161</v>
+        <v>630618531</v>
       </c>
       <c r="E28" t="n">
-        <v>2425606848</v>
+        <v>2442292531</v>
       </c>
       <c r="F28" t="n">
-        <v>256223.3847799419</v>
+        <v>251682.1356371534</v>
       </c>
       <c r="G28" t="n">
-        <v>265722.9332244201</v>
+        <v>271863.1033392385</v>
       </c>
       <c r="H28" t="n">
         <v>0.04</v>
       </c>
       <c r="I28" t="n">
-        <v>38845870</v>
+        <v>39485077</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>128043792</v>
+        <v>127718419</v>
       </c>
       <c r="E29" t="n">
-        <v>491196597</v>
+        <v>489948414</v>
       </c>
       <c r="F29" t="n">
-        <v>246068.9848309307</v>
+        <v>199556.4290884668</v>
       </c>
       <c r="G29" t="n">
-        <v>246654.4810693671</v>
+        <v>239457.3055880178</v>
       </c>
       <c r="H29" t="n">
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>37456932</v>
+        <v>38536079</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>494715538</v>
+        <v>494918083</v>
       </c>
       <c r="E30" t="n">
-        <v>494715538</v>
+        <v>494918083</v>
       </c>
       <c r="F30" t="n">
-        <v>830600.9200975054</v>
+        <v>813095.7651130226</v>
       </c>
       <c r="G30" t="n">
-        <v>1057161.350714512</v>
+        <v>1072724.651986647</v>
       </c>
       <c r="H30" t="n">
         <v>0.01</v>
       </c>
       <c r="I30" t="n">
-        <v>33754292</v>
+        <v>33890413</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2733741248</v>
+        <v>2741881293</v>
       </c>
       <c r="E31" t="n">
-        <v>2902521878</v>
+        <v>2911164487</v>
       </c>
       <c r="F31" t="n">
-        <v>230134.5941183921</v>
+        <v>269432.5007813066</v>
       </c>
       <c r="G31" t="n">
-        <v>294673.0593577991</v>
+        <v>494697.8134807586</v>
       </c>
       <c r="H31" t="n">
         <v>0.03</v>
       </c>
       <c r="I31" t="n">
-        <v>42128111</v>
+        <v>43016367</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>511200914</v>
+        <v>510819005</v>
       </c>
       <c r="E32" t="n">
-        <v>1779447837</v>
+        <v>1778118445</v>
       </c>
       <c r="F32" t="n">
-        <v>412627.1519087962</v>
+        <v>8865.284921709565</v>
       </c>
       <c r="G32" t="n">
-        <v>458312.2949763925</v>
+        <v>7030.112166397048</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>35356453</v>
+        <v>36197722</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>410929824</v>
+        <v>410879511</v>
       </c>
       <c r="E33" t="n">
-        <v>2348170421</v>
+        <v>2347882922</v>
       </c>
       <c r="F33" t="n">
-        <v>181202.4796868939</v>
+        <v>235769.2289983557</v>
       </c>
       <c r="G33" t="n">
-        <v>262019.0153080767</v>
+        <v>240832.8631804889</v>
       </c>
       <c r="H33" t="n">
         <v>0.09</v>
       </c>
       <c r="I33" t="n">
-        <v>42913051</v>
+        <v>42609279</v>
       </c>
     </row>
   </sheetData>

--- a/BinanceData20250221.xlsx
+++ b/BinanceData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>154054225</v>
+        <v>153542654</v>
       </c>
       <c r="E2" t="n">
-        <v>170716156</v>
+        <v>170149257</v>
       </c>
       <c r="F2" t="n">
-        <v>87871.37522964549</v>
+        <v>133198.8406633253</v>
       </c>
       <c r="G2" t="n">
-        <v>263482.2290621024</v>
+        <v>257855.1679337508</v>
       </c>
       <c r="H2" t="n">
         <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>42057133</v>
+        <v>43921502</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>129488307</v>
+        <v>129715164</v>
       </c>
       <c r="E3" t="n">
-        <v>507555391</v>
+        <v>508444606</v>
       </c>
       <c r="F3" t="n">
-        <v>104185.9140803353</v>
+        <v>113553.7177385474</v>
       </c>
       <c r="G3" t="n">
-        <v>119704.4837354828</v>
+        <v>143987.2951165293</v>
       </c>
       <c r="H3" t="n">
         <v>0.04</v>
       </c>
       <c r="I3" t="n">
-        <v>27481312</v>
+        <v>26924030</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>598868079</v>
+        <v>601611494</v>
       </c>
       <c r="E4" t="n">
-        <v>749094959</v>
+        <v>752526563</v>
       </c>
       <c r="F4" t="n">
-        <v>354463.4093398159</v>
+        <v>357318.3239210427</v>
       </c>
       <c r="G4" t="n">
-        <v>341148.9879224489</v>
+        <v>315754.9506260031</v>
       </c>
       <c r="H4" t="n">
         <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>56823233</v>
+        <v>61895502</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148024507</v>
+        <v>148720172</v>
       </c>
       <c r="E5" t="n">
-        <v>148024507</v>
+        <v>148720172</v>
       </c>
       <c r="F5" t="n">
-        <v>224291.9530761661</v>
+        <v>235282.5736437278</v>
       </c>
       <c r="G5" t="n">
-        <v>317074.856855811</v>
+        <v>365890.402446855</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>75720412</v>
+        <v>75930175</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69488738</v>
+        <v>70215319</v>
       </c>
       <c r="E6" t="n">
-        <v>356352501</v>
+        <v>360078561</v>
       </c>
       <c r="F6" t="n">
-        <v>48726.30507181425</v>
+        <v>61595.06695114278</v>
       </c>
       <c r="G6" t="n">
-        <v>103717.6150953638</v>
+        <v>99290.35167321621</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>24825335</v>
+        <v>25114406</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101764449</v>
+        <v>101924436</v>
       </c>
       <c r="E7" t="n">
-        <v>126888338</v>
+        <v>127087823</v>
       </c>
       <c r="F7" t="n">
-        <v>56007.95992211015</v>
+        <v>50588.10286173918</v>
       </c>
       <c r="G7" t="n">
-        <v>49391.93905127341</v>
+        <v>79159.94283533409</v>
       </c>
       <c r="H7" t="n">
         <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>10462310</v>
+        <v>10450665</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>89009550</v>
+        <v>90223307</v>
       </c>
       <c r="E8" t="n">
-        <v>248981623</v>
+        <v>252398871</v>
       </c>
       <c r="F8" t="n">
-        <v>45719.89288292244</v>
+        <v>49092.89907312907</v>
       </c>
       <c r="G8" t="n">
-        <v>85419.80157149953</v>
+        <v>128638.6715559194</v>
       </c>
       <c r="H8" t="n">
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>52828738</v>
+        <v>46089140</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>147972622</v>
+        <v>148188405</v>
       </c>
       <c r="E9" t="n">
-        <v>148026784</v>
+        <v>148244773</v>
       </c>
       <c r="F9" t="n">
-        <v>40570.37664803531</v>
+        <v>46140.25619835452</v>
       </c>
       <c r="G9" t="n">
-        <v>71300.36097186749</v>
+        <v>78197.31364147537</v>
       </c>
       <c r="H9" t="n">
         <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>2705697</v>
+        <v>2738301</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>697712526</v>
+        <v>713408896</v>
       </c>
       <c r="E10" t="n">
-        <v>697712526</v>
+        <v>713408896</v>
       </c>
       <c r="F10" t="n">
-        <v>1161687.857407903</v>
+        <v>1314969.946174382</v>
       </c>
       <c r="G10" t="n">
-        <v>1346889.574851953</v>
+        <v>1258780.947269984</v>
       </c>
       <c r="H10" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I10" t="n">
-        <v>364726147</v>
+        <v>391349341</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>121251197</v>
+        <v>121374965</v>
       </c>
       <c r="E11" t="n">
-        <v>514779311</v>
+        <v>515272451</v>
       </c>
       <c r="F11" t="n">
-        <v>10008.21682648499</v>
+        <v>5064.223359441051</v>
       </c>
       <c r="G11" t="n">
-        <v>5747.624615455098</v>
+        <v>2363.205350164088</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05</v>
+        <v>0.27</v>
       </c>
       <c r="I11" t="n">
-        <v>14443742</v>
+        <v>15119754</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1441881884</v>
+        <v>1465514413</v>
       </c>
       <c r="E12" t="n">
-        <v>6914118924</v>
+        <v>7027441739</v>
       </c>
       <c r="F12" t="n">
-        <v>1180396.412481164</v>
+        <v>665407.7179028643</v>
       </c>
       <c r="G12" t="n">
-        <v>881040.1096366234</v>
+        <v>991703.8561576551</v>
       </c>
       <c r="H12" t="n">
         <v>0.02</v>
       </c>
       <c r="I12" t="n">
-        <v>233226334</v>
+        <v>252094046</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>286029805</v>
+        <v>288688263</v>
       </c>
       <c r="E13" t="n">
-        <v>1234663424</v>
+        <v>1246138805</v>
       </c>
       <c r="F13" t="n">
-        <v>603037.5501036353</v>
+        <v>649915.2129651401</v>
       </c>
       <c r="G13" t="n">
-        <v>671954.1828546961</v>
+        <v>716743.4538247697</v>
       </c>
       <c r="H13" t="n">
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>111133679</v>
+        <v>111935020</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>117574785</v>
+        <v>117919888</v>
       </c>
       <c r="E14" t="n">
-        <v>117574785</v>
+        <v>117919888</v>
       </c>
       <c r="F14" t="n">
-        <v>70970.56855678669</v>
+        <v>66925.13145880545</v>
       </c>
       <c r="G14" t="n">
-        <v>60068.92283738364</v>
+        <v>64301.5394907919</v>
       </c>
       <c r="H14" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I14" t="n">
-        <v>6314127</v>
+        <v>6370265</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2004471787</v>
+        <v>2046533997</v>
       </c>
       <c r="E15" t="n">
-        <v>2004471787</v>
+        <v>2046533997</v>
       </c>
       <c r="F15" t="n">
-        <v>10942268.17790361</v>
+        <v>12311315.42051402</v>
       </c>
       <c r="G15" t="n">
-        <v>12789109.89187335</v>
+        <v>12751467.22010907</v>
       </c>
       <c r="H15" t="n">
         <v>0.01</v>
       </c>
       <c r="I15" t="n">
-        <v>7748229506</v>
+        <v>7768514489</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>211809734</v>
+        <v>212696174</v>
       </c>
       <c r="E16" t="n">
-        <v>1199396862</v>
+        <v>1204416425</v>
       </c>
       <c r="F16" t="n">
-        <v>353092.4973406396</v>
+        <v>319300.694036042</v>
       </c>
       <c r="G16" t="n">
-        <v>429009.0590938504</v>
+        <v>389557.6270240794</v>
       </c>
       <c r="H16" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>67019447</v>
+        <v>68148594</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>349325105</v>
+        <v>349353141</v>
       </c>
       <c r="E17" t="n">
-        <v>3142745251</v>
+        <v>3142997480</v>
       </c>
       <c r="F17" t="n">
-        <v>10660.88322079993</v>
+        <v>10063.00126820633</v>
       </c>
       <c r="G17" t="n">
-        <v>9158.830060163569</v>
+        <v>8166.398508804245</v>
       </c>
       <c r="H17" t="n">
         <v>0.09</v>
       </c>
       <c r="I17" t="n">
-        <v>44037164</v>
+        <v>44933753</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50366070</v>
+        <v>51161704</v>
       </c>
       <c r="E18" t="n">
-        <v>291598733</v>
+        <v>296205125</v>
       </c>
       <c r="F18" t="n">
-        <v>57031.13407765618</v>
+        <v>52200.10877246247</v>
       </c>
       <c r="G18" t="n">
-        <v>114817.3819444528</v>
+        <v>126963.1215134064</v>
       </c>
       <c r="H18" t="n">
         <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>41404975</v>
+        <v>41983033</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>324499084</v>
+        <v>325519889</v>
       </c>
       <c r="E19" t="n">
-        <v>329569069</v>
+        <v>330610677</v>
       </c>
       <c r="F19" t="n">
-        <v>239875.5447452623</v>
+        <v>269595.1097941388</v>
       </c>
       <c r="G19" t="n">
-        <v>420073.0151019405</v>
+        <v>361846.7501789659</v>
       </c>
       <c r="H19" t="n">
         <v>0.01</v>
       </c>
       <c r="I19" t="n">
-        <v>19099440</v>
+        <v>19723149</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>309932779</v>
+        <v>311115969</v>
       </c>
       <c r="E20" t="n">
-        <v>309932779</v>
+        <v>311115969</v>
       </c>
       <c r="F20" t="n">
-        <v>220670.8728204412</v>
+        <v>199910.0698690166</v>
       </c>
       <c r="G20" t="n">
-        <v>253544.8899891879</v>
+        <v>240562.1319850102</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>72308323</v>
+        <v>73300996</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>94360954</v>
+        <v>93755165</v>
       </c>
       <c r="E21" t="n">
-        <v>543748516</v>
+        <v>540257697</v>
       </c>
       <c r="F21" t="n">
-        <v>574718.695294927</v>
+        <v>494524.3473183553</v>
       </c>
       <c r="G21" t="n">
-        <v>534706.4435811511</v>
+        <v>474974.2492316237</v>
       </c>
       <c r="H21" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I21" t="n">
-        <v>18303299</v>
+        <v>18345191</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>111646725</v>
+        <v>112088307</v>
       </c>
       <c r="E22" t="n">
-        <v>274694563</v>
+        <v>275781028</v>
       </c>
       <c r="F22" t="n">
-        <v>38811.32410996803</v>
+        <v>41689.47297611848</v>
       </c>
       <c r="G22" t="n">
-        <v>62129.64872276716</v>
+        <v>58174.8339973655</v>
       </c>
       <c r="H22" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>2166952</v>
+        <v>2325596</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18294514</v>
+        <v>18375882</v>
       </c>
       <c r="E23" t="n">
-        <v>18294514</v>
+        <v>18375953</v>
       </c>
       <c r="F23" t="n">
-        <v>42168.86229991651</v>
+        <v>29155.83923006437</v>
       </c>
       <c r="G23" t="n">
-        <v>37247.54758395738</v>
+        <v>37428.42677550207</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>2782857</v>
+        <v>2238193</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>52934975</v>
+        <v>52901675</v>
       </c>
       <c r="E24" t="n">
-        <v>343269223</v>
+        <v>343053281</v>
       </c>
       <c r="F24" t="n">
-        <v>13792.98117257148</v>
+        <v>10754.44172142297</v>
       </c>
       <c r="G24" t="n">
-        <v>17721.10067202796</v>
+        <v>20411.88751586082</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I24" t="n">
-        <v>17626230</v>
+        <v>17478931</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25304578</v>
+        <v>25250219</v>
       </c>
       <c r="E25" t="n">
-        <v>151402378</v>
+        <v>151077135</v>
       </c>
       <c r="F25" t="n">
-        <v>82001.34603296444</v>
+        <v>90914.53043418587</v>
       </c>
       <c r="G25" t="n">
-        <v>84096.74923891181</v>
+        <v>101769.3349519608</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>13585864</v>
+        <v>13817810</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>35948325</v>
+        <v>36022245</v>
       </c>
       <c r="E26" t="n">
-        <v>179398711</v>
+        <v>179767610</v>
       </c>
       <c r="F26" t="n">
-        <v>12254.67101519173</v>
+        <v>12124.05654274039</v>
       </c>
       <c r="G26" t="n">
-        <v>4415.800713444481</v>
+        <v>3129.811049684941</v>
       </c>
       <c r="H26" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="I26" t="n">
-        <v>10333085</v>
+        <v>10486296</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>75456927</v>
+        <v>75887335</v>
       </c>
       <c r="E27" t="n">
-        <v>719785057</v>
+        <v>723886184</v>
       </c>
       <c r="F27" t="n">
-        <v>11330.85328833609</v>
+        <v>9316.260512332947</v>
       </c>
       <c r="G27" t="n">
-        <v>25473.64163689452</v>
+        <v>29243.59740373385</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I27" t="n">
-        <v>21992390</v>
+        <v>21814242</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>630618531</v>
+        <v>629459559</v>
       </c>
       <c r="E28" t="n">
-        <v>2442292531</v>
+        <v>2437804003</v>
       </c>
       <c r="F28" t="n">
-        <v>251682.1356371534</v>
+        <v>241974.1316346677</v>
       </c>
       <c r="G28" t="n">
-        <v>271863.1033392385</v>
+        <v>289267.5728404718</v>
       </c>
       <c r="H28" t="n">
         <v>0.04</v>
       </c>
       <c r="I28" t="n">
-        <v>39485077</v>
+        <v>40901688</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>127718419</v>
+        <v>127756139</v>
       </c>
       <c r="E29" t="n">
-        <v>489948414</v>
+        <v>490093113</v>
       </c>
       <c r="F29" t="n">
-        <v>199556.4290884668</v>
+        <v>177452.9566131486</v>
       </c>
       <c r="G29" t="n">
-        <v>239457.3055880178</v>
+        <v>252870.0281866382</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>38536079</v>
+        <v>38967161</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>494918083</v>
+        <v>495602728</v>
       </c>
       <c r="E30" t="n">
-        <v>494918083</v>
+        <v>495602728</v>
       </c>
       <c r="F30" t="n">
-        <v>813095.7651130226</v>
+        <v>790405.0059609663</v>
       </c>
       <c r="G30" t="n">
-        <v>1072724.651986647</v>
+        <v>922063.4944507881</v>
       </c>
       <c r="H30" t="n">
         <v>0.01</v>
       </c>
       <c r="I30" t="n">
-        <v>33890413</v>
+        <v>34911027</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2741881293</v>
+        <v>2768399236</v>
       </c>
       <c r="E31" t="n">
-        <v>2911164487</v>
+        <v>2939319643</v>
       </c>
       <c r="F31" t="n">
-        <v>269432.5007813066</v>
+        <v>284927.9493514948</v>
       </c>
       <c r="G31" t="n">
-        <v>494697.8134807586</v>
+        <v>508073.1472726132</v>
       </c>
       <c r="H31" t="n">
         <v>0.03</v>
       </c>
       <c r="I31" t="n">
-        <v>43016367</v>
+        <v>44089171</v>
       </c>
     </row>
     <row r="32">
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>510819005</v>
+        <v>514680438</v>
       </c>
       <c r="E32" t="n">
-        <v>1778118445</v>
+        <v>1791559773</v>
       </c>
       <c r="F32" t="n">
         <v>8865.284921709565</v>
@@ -1562,7 +1562,7 @@
         <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>36197722</v>
+        <v>36772296</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>410879511</v>
+        <v>415427517</v>
       </c>
       <c r="E33" t="n">
-        <v>2347882922</v>
+        <v>2373871523</v>
       </c>
       <c r="F33" t="n">
-        <v>235769.2289983557</v>
+        <v>200156.2949538722</v>
       </c>
       <c r="G33" t="n">
-        <v>240832.8631804889</v>
+        <v>278605.4057465261</v>
       </c>
       <c r="H33" t="n">
         <v>0.09</v>
       </c>
       <c r="I33" t="n">
-        <v>42609279</v>
+        <v>43894815</v>
       </c>
     </row>
   </sheetData>
